--- a/TEST2/insr1_sup1_test_graph.xlsx
+++ b/TEST2/insr1_sup1_test_graph.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ESI\2CP\TP1_SFSD\test2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D420027-1EAE-4C5C-ADCE-8D00AA9DF8EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B7EE59-1C99-4BB0-8698-B746C996CA28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -142,301 +142,301 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>33</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>42</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>56</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>64</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>72</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>76</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>92</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>100</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>104</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>112</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>120</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>158</c:v>
-                </c:pt>
                 <c:pt idx="19">
-                  <c:v>168</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>173</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>178</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>183</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>188</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>194</c:v>
+                  <c:v>177</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>200</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>206</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>221</c:v>
+                  <c:v>193</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>232</c:v>
+                  <c:v>199</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>259</c:v>
+                  <c:v>205</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>266</c:v>
+                  <c:v>211</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>273</c:v>
+                  <c:v>217</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>280</c:v>
+                  <c:v>230</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>292</c:v>
+                  <c:v>237</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>304</c:v>
+                  <c:v>276</c:v>
                 </c:pt>
                 <c:pt idx="35">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>311</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>318</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>325</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>332</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>361</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>368</c:v>
+                  <c:v>374</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>375</c:v>
+                  <c:v>381</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>390</c:v>
+                  <c:v>395</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>407</c:v>
+                  <c:v>426</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>415</c:v>
+                  <c:v>442</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>432</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>458</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>466</c:v>
+                  <c:v>498</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>506</c:v>
+                  <c:v>539</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>530</c:v>
+                  <c:v>547</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>546</c:v>
+                  <c:v>571</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>554</c:v>
+                  <c:v>579</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>570</c:v>
+                  <c:v>587</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>604</c:v>
+                  <c:v>603</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>622</c:v>
+                  <c:v>612</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>640</c:v>
+                  <c:v>621</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>649</c:v>
+                  <c:v>637</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>676</c:v>
+                  <c:v>653</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>685</c:v>
+                  <c:v>662</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>703</c:v>
+                  <c:v>679</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>712</c:v>
+                  <c:v>698</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>721</c:v>
+                  <c:v>707</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>730</c:v>
+                  <c:v>787</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>748</c:v>
+                  <c:v>797</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>775</c:v>
+                  <c:v>807</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>784</c:v>
+                  <c:v>817</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>813</c:v>
+                  <c:v>827</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>843</c:v>
+                  <c:v>837</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>853</c:v>
+                  <c:v>857</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>934</c:v>
+                  <c:v>897</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>945</c:v>
+                  <c:v>919</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>956</c:v>
+                  <c:v>930</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>967</c:v>
+                  <c:v>960</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>987</c:v>
+                  <c:v>1043</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>998</c:v>
+                  <c:v>1066</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1009</c:v>
+                  <c:v>1077</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1029</c:v>
+                  <c:v>1088</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1049</c:v>
+                  <c:v>1154</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1069</c:v>
+                  <c:v>1198</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1080</c:v>
+                  <c:v>1209</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1091</c:v>
+                  <c:v>1231</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1102</c:v>
+                  <c:v>1254</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1113</c:v>
+                  <c:v>1266</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1124</c:v>
+                  <c:v>1278</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1135</c:v>
+                  <c:v>1314</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1171</c:v>
+                  <c:v>1338</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1183</c:v>
+                  <c:v>1374</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1208</c:v>
+                  <c:v>1386</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1220</c:v>
+                  <c:v>1410</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1232</c:v>
+                  <c:v>1422</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1257</c:v>
+                  <c:v>1434</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1296</c:v>
+                  <c:v>1446</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1309</c:v>
+                  <c:v>1458</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1361</c:v>
+                  <c:v>1506</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1374</c:v>
+                  <c:v>1531</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1400</c:v>
+                  <c:v>1557</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1426</c:v>
+                  <c:v>1570</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1452</c:v>
+                  <c:v>1583</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1478</c:v>
+                  <c:v>1596</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1504</c:v>
+                  <c:v>1609</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -484,289 +484,289 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>36</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>39</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>48</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>52</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>60</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>68</c:v>
+                  <c:v>162</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>80</c:v>
+                  <c:v>167</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>84</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>88</c:v>
+                  <c:v>223</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>96</c:v>
+                  <c:v>245</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>108</c:v>
+                  <c:v>253</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>116</c:v>
+                  <c:v>261</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>128</c:v>
+                  <c:v>269</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>133</c:v>
+                  <c:v>283</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>148</c:v>
+                  <c:v>290</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>153</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>163</c:v>
+                  <c:v>318</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>211</c:v>
+                  <c:v>332</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>216</c:v>
+                  <c:v>339</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>226</c:v>
+                  <c:v>353</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>239</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>246</c:v>
+                  <c:v>388</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>253</c:v>
+                  <c:v>402</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>286</c:v>
+                  <c:v>410</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>298</c:v>
+                  <c:v>418</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>338</c:v>
+                  <c:v>434</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>346</c:v>
+                  <c:v>466</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>354</c:v>
+                  <c:v>474</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>382</c:v>
+                  <c:v>482</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>399</c:v>
+                  <c:v>490</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>424</c:v>
+                  <c:v>506</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>441</c:v>
+                  <c:v>514</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>450</c:v>
+                  <c:v>523</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>474</c:v>
+                  <c:v>531</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>482</c:v>
+                  <c:v>555</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>490</c:v>
+                  <c:v>563</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>498</c:v>
+                  <c:v>595</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>514</c:v>
+                  <c:v>629</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>522</c:v>
+                  <c:v>645</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>538</c:v>
+                  <c:v>670</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>562</c:v>
+                  <c:v>689</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>578</c:v>
+                  <c:v>716</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>586</c:v>
+                  <c:v>727</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>595</c:v>
+                  <c:v>737</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>613</c:v>
+                  <c:v>747</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>631</c:v>
+                  <c:v>757</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>658</c:v>
+                  <c:v>767</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>667</c:v>
+                  <c:v>777</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>694</c:v>
+                  <c:v>847</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>739</c:v>
+                  <c:v>867</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>757</c:v>
+                  <c:v>877</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>766</c:v>
+                  <c:v>887</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>793</c:v>
+                  <c:v>908</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>803</c:v>
+                  <c:v>940</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>823</c:v>
+                  <c:v>950</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>833</c:v>
+                  <c:v>970</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>863</c:v>
+                  <c:v>980</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>873</c:v>
+                  <c:v>990</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>883</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>893</c:v>
+                  <c:v>1010</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>903</c:v>
+                  <c:v>1020</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>913</c:v>
+                  <c:v>1032</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>924</c:v>
+                  <c:v>1055</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>977</c:v>
+                  <c:v>1099</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1019</c:v>
+                  <c:v>1110</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1039</c:v>
+                  <c:v>1121</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1059</c:v>
+                  <c:v>1132</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1146</c:v>
+                  <c:v>1143</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1159</c:v>
+                  <c:v>1165</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1196</c:v>
+                  <c:v>1176</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1245</c:v>
+                  <c:v>1187</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1269</c:v>
+                  <c:v>1220</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1283</c:v>
+                  <c:v>1242</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1322</c:v>
+                  <c:v>1290</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1335</c:v>
+                  <c:v>1302</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1348</c:v>
+                  <c:v>1326</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1387</c:v>
+                  <c:v>1350</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1413</c:v>
+                  <c:v>1362</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1439</c:v>
+                  <c:v>1398</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1465</c:v>
+                  <c:v>1470</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1491</c:v>
+                  <c:v>1482</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1530</c:v>
+                  <c:v>1494</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1543</c:v>
+                  <c:v>1518</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1557</c:v>
+                  <c:v>1544</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1571</c:v>
+                  <c:v>1622</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1599</c:v>
+                  <c:v>1661</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1613</c:v>
+                  <c:v>1726</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1627</c:v>
+                  <c:v>1739</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1656</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>0</c:v>
@@ -1786,301 +1786,301 @@
             <v>6</v>
           </cell>
           <cell r="C1">
-            <v>18</v>
+            <v>10</v>
           </cell>
           <cell r="D1">
+            <v>14</v>
+          </cell>
+          <cell r="E1">
+            <v>20</v>
+          </cell>
+          <cell r="F1">
             <v>24</v>
           </cell>
-          <cell r="E1">
-            <v>30</v>
-          </cell>
-          <cell r="F1">
-            <v>33</v>
-          </cell>
           <cell r="G1">
-            <v>42</v>
+            <v>28</v>
           </cell>
           <cell r="H1">
-            <v>56</v>
+            <v>32</v>
           </cell>
           <cell r="I1">
-            <v>64</v>
+            <v>41</v>
           </cell>
           <cell r="J1">
-            <v>72</v>
+            <v>53</v>
           </cell>
           <cell r="K1">
-            <v>76</v>
+            <v>67</v>
           </cell>
           <cell r="L1">
-            <v>92</v>
+            <v>71</v>
           </cell>
           <cell r="M1">
-            <v>100</v>
+            <v>75</v>
           </cell>
           <cell r="N1">
-            <v>104</v>
+            <v>84</v>
           </cell>
           <cell r="O1">
-            <v>112</v>
+            <v>89</v>
           </cell>
           <cell r="P1">
+            <v>94</v>
+          </cell>
+          <cell r="Q1">
+            <v>99</v>
+          </cell>
+          <cell r="R1">
+            <v>110</v>
+          </cell>
+          <cell r="S1">
+            <v>115</v>
+          </cell>
+          <cell r="T1">
             <v>120</v>
           </cell>
-          <cell r="Q1">
-            <v>124</v>
-          </cell>
-          <cell r="R1">
-            <v>138</v>
-          </cell>
-          <cell r="S1">
-            <v>143</v>
-          </cell>
-          <cell r="T1">
-            <v>158</v>
-          </cell>
           <cell r="U1">
-            <v>168</v>
+            <v>125</v>
           </cell>
           <cell r="V1">
-            <v>173</v>
+            <v>135</v>
           </cell>
           <cell r="W1">
-            <v>178</v>
+            <v>141</v>
           </cell>
           <cell r="X1">
-            <v>183</v>
+            <v>147</v>
           </cell>
           <cell r="Y1">
-            <v>188</v>
+            <v>157</v>
           </cell>
           <cell r="Z1">
-            <v>194</v>
+            <v>177</v>
           </cell>
           <cell r="AA1">
-            <v>200</v>
+            <v>182</v>
           </cell>
           <cell r="AB1">
-            <v>206</v>
+            <v>187</v>
           </cell>
           <cell r="AC1">
-            <v>221</v>
+            <v>193</v>
           </cell>
           <cell r="AD1">
-            <v>232</v>
+            <v>199</v>
           </cell>
           <cell r="AE1">
-            <v>259</v>
+            <v>205</v>
           </cell>
           <cell r="AF1">
-            <v>266</v>
+            <v>211</v>
           </cell>
           <cell r="AG1">
-            <v>273</v>
+            <v>217</v>
           </cell>
           <cell r="AH1">
-            <v>280</v>
+            <v>230</v>
           </cell>
           <cell r="AI1">
-            <v>292</v>
+            <v>237</v>
           </cell>
           <cell r="AJ1">
-            <v>304</v>
+            <v>276</v>
           </cell>
           <cell r="AK1">
+            <v>297</v>
+          </cell>
+          <cell r="AL1">
             <v>311</v>
-          </cell>
-          <cell r="AL1">
-            <v>318</v>
           </cell>
           <cell r="AM1">
             <v>325</v>
           </cell>
           <cell r="AN1">
-            <v>332</v>
+            <v>346</v>
           </cell>
           <cell r="AO1">
-            <v>361</v>
+            <v>367</v>
           </cell>
           <cell r="AP1">
-            <v>368</v>
+            <v>374</v>
           </cell>
           <cell r="AQ1">
-            <v>375</v>
+            <v>381</v>
           </cell>
           <cell r="AR1">
-            <v>390</v>
+            <v>395</v>
           </cell>
           <cell r="AS1">
-            <v>407</v>
+            <v>426</v>
           </cell>
           <cell r="AT1">
-            <v>415</v>
+            <v>442</v>
           </cell>
           <cell r="AU1">
-            <v>432</v>
+            <v>450</v>
           </cell>
           <cell r="AV1">
             <v>458</v>
           </cell>
           <cell r="AW1">
-            <v>466</v>
+            <v>498</v>
           </cell>
           <cell r="AX1">
-            <v>506</v>
+            <v>539</v>
           </cell>
           <cell r="AY1">
-            <v>530</v>
+            <v>547</v>
           </cell>
           <cell r="AZ1">
-            <v>546</v>
+            <v>571</v>
           </cell>
           <cell r="BA1">
-            <v>554</v>
+            <v>579</v>
           </cell>
           <cell r="BB1">
-            <v>570</v>
+            <v>587</v>
           </cell>
           <cell r="BC1">
-            <v>604</v>
+            <v>603</v>
           </cell>
           <cell r="BD1">
-            <v>622</v>
+            <v>612</v>
           </cell>
           <cell r="BE1">
-            <v>640</v>
+            <v>621</v>
           </cell>
           <cell r="BF1">
-            <v>649</v>
+            <v>637</v>
           </cell>
           <cell r="BG1">
-            <v>676</v>
+            <v>653</v>
           </cell>
           <cell r="BH1">
-            <v>685</v>
+            <v>662</v>
           </cell>
           <cell r="BI1">
-            <v>703</v>
+            <v>679</v>
           </cell>
           <cell r="BJ1">
-            <v>712</v>
+            <v>698</v>
           </cell>
           <cell r="BK1">
-            <v>721</v>
+            <v>707</v>
           </cell>
           <cell r="BL1">
-            <v>730</v>
+            <v>787</v>
           </cell>
           <cell r="BM1">
-            <v>748</v>
+            <v>797</v>
           </cell>
           <cell r="BN1">
-            <v>775</v>
+            <v>807</v>
           </cell>
           <cell r="BO1">
-            <v>784</v>
+            <v>817</v>
           </cell>
           <cell r="BP1">
-            <v>813</v>
+            <v>827</v>
           </cell>
           <cell r="BQ1">
-            <v>843</v>
+            <v>837</v>
           </cell>
           <cell r="BR1">
-            <v>853</v>
+            <v>857</v>
           </cell>
           <cell r="BS1">
-            <v>934</v>
+            <v>897</v>
           </cell>
           <cell r="BT1">
-            <v>945</v>
+            <v>919</v>
           </cell>
           <cell r="BU1">
-            <v>956</v>
+            <v>930</v>
           </cell>
           <cell r="BV1">
-            <v>967</v>
+            <v>960</v>
           </cell>
           <cell r="BW1">
-            <v>987</v>
+            <v>1043</v>
           </cell>
           <cell r="BX1">
-            <v>998</v>
+            <v>1066</v>
           </cell>
           <cell r="BY1">
-            <v>1009</v>
+            <v>1077</v>
           </cell>
           <cell r="BZ1">
-            <v>1029</v>
+            <v>1088</v>
           </cell>
           <cell r="CA1">
-            <v>1049</v>
+            <v>1154</v>
           </cell>
           <cell r="CB1">
-            <v>1069</v>
+            <v>1198</v>
           </cell>
           <cell r="CC1">
-            <v>1080</v>
+            <v>1209</v>
           </cell>
           <cell r="CD1">
-            <v>1091</v>
+            <v>1231</v>
           </cell>
           <cell r="CE1">
-            <v>1102</v>
+            <v>1254</v>
           </cell>
           <cell r="CF1">
-            <v>1113</v>
+            <v>1266</v>
           </cell>
           <cell r="CG1">
-            <v>1124</v>
+            <v>1278</v>
           </cell>
           <cell r="CH1">
-            <v>1135</v>
+            <v>1314</v>
           </cell>
           <cell r="CI1">
-            <v>1171</v>
+            <v>1338</v>
           </cell>
           <cell r="CJ1">
-            <v>1183</v>
+            <v>1374</v>
           </cell>
           <cell r="CK1">
-            <v>1208</v>
+            <v>1386</v>
           </cell>
           <cell r="CL1">
-            <v>1220</v>
+            <v>1410</v>
           </cell>
           <cell r="CM1">
-            <v>1232</v>
+            <v>1422</v>
           </cell>
           <cell r="CN1">
-            <v>1257</v>
+            <v>1434</v>
           </cell>
           <cell r="CO1">
-            <v>1296</v>
+            <v>1446</v>
           </cell>
           <cell r="CP1">
-            <v>1309</v>
+            <v>1458</v>
           </cell>
           <cell r="CQ1">
-            <v>1361</v>
+            <v>1506</v>
           </cell>
           <cell r="CR1">
-            <v>1374</v>
+            <v>1531</v>
           </cell>
           <cell r="CS1">
-            <v>1400</v>
+            <v>1557</v>
           </cell>
           <cell r="CT1">
-            <v>1426</v>
+            <v>1570</v>
           </cell>
           <cell r="CU1">
-            <v>1452</v>
+            <v>1583</v>
           </cell>
           <cell r="CV1">
-            <v>1478</v>
+            <v>1596</v>
           </cell>
           <cell r="CW1">
-            <v>1504</v>
+            <v>1609</v>
           </cell>
         </row>
         <row r="2">
@@ -2091,289 +2091,289 @@
             <v>3</v>
           </cell>
           <cell r="C2">
-            <v>9</v>
+            <v>17</v>
           </cell>
           <cell r="D2">
-            <v>12</v>
+            <v>35</v>
           </cell>
           <cell r="E2">
-            <v>15</v>
+            <v>38</v>
           </cell>
           <cell r="F2">
-            <v>21</v>
+            <v>44</v>
           </cell>
           <cell r="G2">
-            <v>27</v>
+            <v>49</v>
           </cell>
           <cell r="H2">
-            <v>36</v>
+            <v>58</v>
           </cell>
           <cell r="I2">
-            <v>39</v>
+            <v>63</v>
           </cell>
           <cell r="J2">
-            <v>45</v>
+            <v>79</v>
           </cell>
           <cell r="K2">
-            <v>48</v>
+            <v>105</v>
           </cell>
           <cell r="L2">
-            <v>52</v>
+            <v>130</v>
           </cell>
           <cell r="M2">
-            <v>60</v>
+            <v>152</v>
           </cell>
           <cell r="N2">
-            <v>68</v>
+            <v>162</v>
           </cell>
           <cell r="O2">
-            <v>80</v>
+            <v>167</v>
           </cell>
           <cell r="P2">
-            <v>84</v>
+            <v>172</v>
           </cell>
           <cell r="Q2">
-            <v>88</v>
+            <v>223</v>
           </cell>
           <cell r="R2">
-            <v>96</v>
+            <v>245</v>
           </cell>
           <cell r="S2">
-            <v>108</v>
+            <v>253</v>
           </cell>
           <cell r="T2">
-            <v>116</v>
+            <v>261</v>
           </cell>
           <cell r="U2">
-            <v>128</v>
+            <v>269</v>
           </cell>
           <cell r="V2">
-            <v>133</v>
+            <v>283</v>
           </cell>
           <cell r="W2">
-            <v>148</v>
+            <v>290</v>
           </cell>
           <cell r="X2">
-            <v>153</v>
+            <v>304</v>
           </cell>
           <cell r="Y2">
-            <v>163</v>
+            <v>318</v>
           </cell>
           <cell r="Z2">
-            <v>211</v>
+            <v>332</v>
           </cell>
           <cell r="AA2">
-            <v>216</v>
+            <v>339</v>
           </cell>
           <cell r="AB2">
-            <v>226</v>
+            <v>353</v>
           </cell>
           <cell r="AC2">
-            <v>239</v>
+            <v>360</v>
           </cell>
           <cell r="AD2">
-            <v>246</v>
+            <v>388</v>
           </cell>
           <cell r="AE2">
-            <v>253</v>
+            <v>402</v>
           </cell>
           <cell r="AF2">
-            <v>286</v>
+            <v>410</v>
           </cell>
           <cell r="AG2">
-            <v>298</v>
+            <v>418</v>
           </cell>
           <cell r="AH2">
-            <v>338</v>
+            <v>434</v>
           </cell>
           <cell r="AI2">
-            <v>346</v>
+            <v>466</v>
           </cell>
           <cell r="AJ2">
-            <v>354</v>
+            <v>474</v>
           </cell>
           <cell r="AK2">
-            <v>382</v>
+            <v>482</v>
           </cell>
           <cell r="AL2">
-            <v>399</v>
+            <v>490</v>
           </cell>
           <cell r="AM2">
-            <v>424</v>
+            <v>506</v>
           </cell>
           <cell r="AN2">
-            <v>441</v>
+            <v>514</v>
           </cell>
           <cell r="AO2">
-            <v>450</v>
+            <v>523</v>
           </cell>
           <cell r="AP2">
-            <v>474</v>
+            <v>531</v>
           </cell>
           <cell r="AQ2">
-            <v>482</v>
+            <v>555</v>
           </cell>
           <cell r="AR2">
-            <v>490</v>
+            <v>563</v>
           </cell>
           <cell r="AS2">
-            <v>498</v>
+            <v>595</v>
           </cell>
           <cell r="AT2">
-            <v>514</v>
+            <v>629</v>
           </cell>
           <cell r="AU2">
-            <v>522</v>
+            <v>645</v>
           </cell>
           <cell r="AV2">
-            <v>538</v>
+            <v>670</v>
           </cell>
           <cell r="AW2">
-            <v>562</v>
+            <v>689</v>
           </cell>
           <cell r="AX2">
-            <v>578</v>
+            <v>716</v>
           </cell>
           <cell r="AY2">
-            <v>586</v>
+            <v>727</v>
           </cell>
           <cell r="AZ2">
-            <v>595</v>
+            <v>737</v>
           </cell>
           <cell r="BA2">
-            <v>613</v>
+            <v>747</v>
           </cell>
           <cell r="BB2">
-            <v>631</v>
+            <v>757</v>
           </cell>
           <cell r="BC2">
-            <v>658</v>
+            <v>767</v>
           </cell>
           <cell r="BD2">
-            <v>667</v>
+            <v>777</v>
           </cell>
           <cell r="BE2">
-            <v>694</v>
+            <v>847</v>
           </cell>
           <cell r="BF2">
-            <v>739</v>
+            <v>867</v>
           </cell>
           <cell r="BG2">
-            <v>757</v>
+            <v>877</v>
           </cell>
           <cell r="BH2">
-            <v>766</v>
+            <v>887</v>
           </cell>
           <cell r="BI2">
-            <v>793</v>
+            <v>908</v>
           </cell>
           <cell r="BJ2">
-            <v>803</v>
+            <v>940</v>
           </cell>
           <cell r="BK2">
-            <v>823</v>
+            <v>950</v>
           </cell>
           <cell r="BL2">
-            <v>833</v>
+            <v>970</v>
           </cell>
           <cell r="BM2">
-            <v>863</v>
+            <v>980</v>
           </cell>
           <cell r="BN2">
-            <v>873</v>
+            <v>990</v>
           </cell>
           <cell r="BO2">
-            <v>883</v>
+            <v>1000</v>
           </cell>
           <cell r="BP2">
-            <v>893</v>
+            <v>1010</v>
           </cell>
           <cell r="BQ2">
-            <v>903</v>
+            <v>1020</v>
           </cell>
           <cell r="BR2">
-            <v>913</v>
+            <v>1032</v>
           </cell>
           <cell r="BS2">
-            <v>924</v>
+            <v>1055</v>
           </cell>
           <cell r="BT2">
-            <v>977</v>
+            <v>1099</v>
           </cell>
           <cell r="BU2">
-            <v>1019</v>
+            <v>1110</v>
           </cell>
           <cell r="BV2">
-            <v>1039</v>
+            <v>1121</v>
           </cell>
           <cell r="BW2">
-            <v>1059</v>
+            <v>1132</v>
           </cell>
           <cell r="BX2">
-            <v>1146</v>
+            <v>1143</v>
           </cell>
           <cell r="BY2">
-            <v>1159</v>
+            <v>1165</v>
           </cell>
           <cell r="BZ2">
-            <v>1196</v>
+            <v>1176</v>
           </cell>
           <cell r="CA2">
-            <v>1245</v>
+            <v>1187</v>
           </cell>
           <cell r="CB2">
-            <v>1269</v>
+            <v>1220</v>
           </cell>
           <cell r="CC2">
-            <v>1283</v>
+            <v>1242</v>
           </cell>
           <cell r="CD2">
-            <v>1322</v>
+            <v>1290</v>
           </cell>
           <cell r="CE2">
-            <v>1335</v>
+            <v>1302</v>
           </cell>
           <cell r="CF2">
-            <v>1348</v>
+            <v>1326</v>
           </cell>
           <cell r="CG2">
-            <v>1387</v>
+            <v>1350</v>
           </cell>
           <cell r="CH2">
-            <v>1413</v>
+            <v>1362</v>
           </cell>
           <cell r="CI2">
-            <v>1439</v>
+            <v>1398</v>
           </cell>
           <cell r="CJ2">
-            <v>1465</v>
+            <v>1470</v>
           </cell>
           <cell r="CK2">
-            <v>1491</v>
+            <v>1482</v>
           </cell>
           <cell r="CL2">
-            <v>1530</v>
+            <v>1494</v>
           </cell>
           <cell r="CM2">
-            <v>1543</v>
+            <v>1518</v>
           </cell>
           <cell r="CN2">
-            <v>1557</v>
+            <v>1544</v>
           </cell>
           <cell r="CO2">
-            <v>1571</v>
+            <v>1622</v>
           </cell>
           <cell r="CP2">
-            <v>1599</v>
+            <v>1661</v>
           </cell>
           <cell r="CQ2">
-            <v>1613</v>
+            <v>1726</v>
           </cell>
           <cell r="CR2">
-            <v>1627</v>
+            <v>1739</v>
           </cell>
           <cell r="CS2">
-            <v>1656</v>
+            <v>0</v>
           </cell>
           <cell r="CT2">
             <v>0</v>

--- a/TEST2/insr1_sup1_test_graph.xlsx
+++ b/TEST2/insr1_sup1_test_graph.xlsx
@@ -5,10 +5,10 @@
   <workbookPr updateLinks="always"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ESI\2CP\TP1_SFSD\test2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ESI\2CP\TP1_SFSD\TEST2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B7EE59-1C99-4BB0-8698-B746C996CA28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B3A2DA-55BA-400F-9D59-E3CAB3A55C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -109,17 +109,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[1]insr1_sup1_test!$A$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>insr1_LOF</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -134,308 +123,311 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>[1]insr1_sup1_test!$B$1:$CW$1</c:f>
+              <c:f>[1]insr1_sup1_test!$A$1:$CW$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>53</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>67</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>71</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>84</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>89</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>94</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>99</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>110</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>115</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>120</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>125</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>135</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>141</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>147</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>157</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>177</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>182</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>187</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>193</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>199</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>205</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>211</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>217</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>230</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>237</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>276</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>297</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>311</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>325</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>346</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>367</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>374</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>381</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>395</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>426</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>442</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>450</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>458</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>498</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>539</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>547</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>571</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>579</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>587</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>603</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>612</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>621</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>637</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>653</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>662</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>679</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="61">
                   <c:v>698</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="62">
                   <c:v>707</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="63">
                   <c:v>787</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="64">
                   <c:v>797</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="65">
                   <c:v>807</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="66">
                   <c:v>817</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="67">
                   <c:v>827</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="68">
                   <c:v>837</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="69">
                   <c:v>857</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="70">
                   <c:v>897</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="71">
                   <c:v>919</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="72">
                   <c:v>930</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="73">
                   <c:v>960</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="74">
                   <c:v>1043</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="75">
                   <c:v>1066</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="76">
                   <c:v>1077</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="77">
                   <c:v>1088</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="78">
                   <c:v>1154</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="79">
                   <c:v>1198</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="80">
                   <c:v>1209</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="81">
                   <c:v>1231</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="82">
                   <c:v>1254</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="83">
                   <c:v>1266</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="84">
                   <c:v>1278</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="85">
                   <c:v>1314</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="86">
                   <c:v>1338</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="87">
                   <c:v>1374</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="88">
                   <c:v>1386</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="89">
                   <c:v>1410</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="90">
                   <c:v>1422</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="91">
                   <c:v>1434</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="92">
                   <c:v>1446</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="93">
                   <c:v>1458</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="94">
                   <c:v>1506</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="95">
                   <c:v>1531</c:v>
                 </c:pt>
-                <c:pt idx="95">
+                <c:pt idx="96">
                   <c:v>1557</c:v>
                 </c:pt>
-                <c:pt idx="96">
+                <c:pt idx="97">
                   <c:v>1570</c:v>
                 </c:pt>
-                <c:pt idx="97">
+                <c:pt idx="98">
                   <c:v>1583</c:v>
                 </c:pt>
-                <c:pt idx="98">
+                <c:pt idx="99">
                   <c:v>1596</c:v>
                 </c:pt>
-                <c:pt idx="99">
+                <c:pt idx="100">
                   <c:v>1609</c:v>
                 </c:pt>
               </c:numCache>
@@ -451,17 +443,6 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[1]insr1_sup1_test!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>sup1_LOF</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -476,297 +457,297 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>[1]insr1_sup1_test!$B$2:$CW$2</c:f>
+              <c:f>[1]insr1_sup1_test!$A$2:$CW$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>38</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>44</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>49</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>58</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>63</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>79</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>105</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>130</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>152</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>162</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>167</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>172</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>223</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>245</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>253</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>261</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>269</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>283</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>290</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>304</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>318</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>332</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>339</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>353</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>360</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>388</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>402</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>410</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>418</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>434</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>466</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>474</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>482</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>490</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>506</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>514</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>523</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>531</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>555</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>563</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>595</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>629</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>645</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>670</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>689</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>716</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>727</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>737</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>747</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>757</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>767</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>777</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>847</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>867</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>877</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>887</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>908</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="61">
                   <c:v>940</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="62">
                   <c:v>950</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="63">
                   <c:v>970</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="64">
                   <c:v>980</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="65">
                   <c:v>990</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="66">
                   <c:v>1000</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="67">
                   <c:v>1010</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="68">
                   <c:v>1020</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="69">
                   <c:v>1032</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="70">
                   <c:v>1055</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="71">
                   <c:v>1099</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="72">
                   <c:v>1110</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="73">
                   <c:v>1121</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="74">
                   <c:v>1132</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="75">
                   <c:v>1143</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="76">
                   <c:v>1165</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="77">
                   <c:v>1176</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="78">
                   <c:v>1187</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="79">
                   <c:v>1220</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="80">
                   <c:v>1242</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="81">
                   <c:v>1290</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="82">
                   <c:v>1302</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="83">
                   <c:v>1326</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="84">
                   <c:v>1350</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="85">
                   <c:v>1362</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="86">
                   <c:v>1398</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="87">
                   <c:v>1470</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="88">
                   <c:v>1482</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="89">
                   <c:v>1494</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="90">
                   <c:v>1518</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="91">
                   <c:v>1544</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="92">
                   <c:v>1622</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="93">
                   <c:v>1661</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="94">
                   <c:v>1726</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="95">
                   <c:v>1739</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>0</c:v>
@@ -778,6 +759,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -787,6 +771,68 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-F939-461F-8501-E3A0BE97C76D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]insr1_sup1_test!$A$3:$CW$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E4B9-4AA1-88FE-8AECB0EB8C0B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]insr1_sup1_test!$A$4:$CW$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E4B9-4AA1-88FE-8AECB0EB8C0B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>

--- a/TEST2/insr1_sup1_test_graph.xlsx
+++ b/TEST2/insr1_sup1_test_graph.xlsx
@@ -5,12 +5,12 @@
   <workbookPr updateLinks="always"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ESI\2CP\TP1_SFSD\TEST2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ESI\2CP\TP1_SFSD\test2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B3A2DA-55BA-400F-9D59-E3CAB3A55C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02CA59D-479D-4B14-AF1C-D818E77DFA8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20610" yWindow="-7635" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -109,6 +109,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]insr1_sup1_test!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ins1_lect_LOF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -123,312 +134,309 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>[1]insr1_sup1_test!$A$1:$CW$1</c:f>
+              <c:f>[1]insr1_sup1_test!$B$1:$CW$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>28</c:v>
-                </c:pt>
                 <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>41</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>53</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>67</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>71</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>75</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>84</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>135</c:v>
-                </c:pt>
                 <c:pt idx="22">
-                  <c:v>141</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>147</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>157</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>177</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>182</c:v>
                 </c:pt>
-                <c:pt idx="27">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>193</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>199</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>211</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>217</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>237</c:v>
-                </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="49">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="67">
                   <c:v>276</c:v>
                 </c:pt>
-                <c:pt idx="36">
-                  <c:v>297</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>311</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>325</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>346</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>367</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>374</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>381</c:v>
-                </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="68">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>369</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>395</c:v>
                 </c:pt>
-                <c:pt idx="44">
-                  <c:v>426</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>442</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>458</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>498</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>539</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>547</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>571</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>579</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>587</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>603</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>612</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>621</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>637</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>653</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>662</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>679</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>698</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>707</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>787</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>797</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>807</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>817</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>827</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>837</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>857</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>897</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>919</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>930</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>960</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1043</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1066</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1077</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1088</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1154</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1198</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>1209</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>1231</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>1254</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>1266</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>1278</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>1314</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>1338</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>1374</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>1386</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>1410</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>1422</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>1434</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>1446</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>1458</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>1506</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>1531</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>1557</c:v>
-                </c:pt>
                 <c:pt idx="97">
-                  <c:v>1570</c:v>
+                  <c:v>398</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1583</c:v>
+                  <c:v>401</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1596</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>1609</c:v>
+                  <c:v>404</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -443,6 +451,17 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]insr1_sup1_test!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ins1_ecr_LOF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -457,312 +476,309 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>[1]insr1_sup1_test!$A$2:$CW$2</c:f>
+              <c:f>[1]insr1_sup1_test!$B$2:$CW$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>38</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="17">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>58</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="29">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>63</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="31">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>79</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="38">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="61">
                   <c:v>130</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="62">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="73">
                   <c:v>152</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="74">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>167</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="79">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>172</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>223</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>245</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>253</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>261</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>269</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>283</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>290</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>304</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>318</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>332</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>339</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>353</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>360</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>388</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>402</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>410</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>418</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>434</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>466</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>474</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>482</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>490</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>506</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>514</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>523</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>531</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>555</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>563</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>595</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>629</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>645</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>670</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>689</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>716</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>727</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>737</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>747</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>757</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>767</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>777</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>847</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>867</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>877</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>887</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>908</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>940</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>950</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>970</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>980</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>990</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1010</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1020</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1032</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1055</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1099</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1110</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1121</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1132</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1143</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1165</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1176</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1187</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1220</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>1242</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>1290</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>1302</c:v>
-                </c:pt>
                 <c:pt idx="83">
-                  <c:v>1326</c:v>
+                  <c:v>173</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1350</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1362</c:v>
+                  <c:v>176</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1398</c:v>
+                  <c:v>177</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1470</c:v>
+                  <c:v>178</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1482</c:v>
+                  <c:v>179</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1494</c:v>
+                  <c:v>188</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1518</c:v>
+                  <c:v>191</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1544</c:v>
+                  <c:v>192</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1622</c:v>
+                  <c:v>193</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1661</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1726</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1739</c:v>
+                  <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0</c:v>
+                  <c:v>199</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0</c:v>
+                  <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0</c:v>
+                  <c:v>202</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -777,6 +793,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]insr1_sup1_test!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sup1_lect_LOF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -791,10 +818,310 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>[1]insr1_sup1_test!$A$3:$CW$3</c:f>
+              <c:f>[1]insr1_sup1_test!$B$3:$CW$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>438</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>448</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -808,6 +1135,17 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]insr1_sup1_test!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sup1_ecr_LOF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -822,10 +1160,310 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>[1]insr1_sup1_test!$A$4:$CW$4</c:f>
+              <c:f>[1]insr1_sup1_test!$B$4:$CW$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>213</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1826,7 +2464,7 @@
       <sheetData sheetId="0">
         <row r="1">
           <cell r="A1" t="str">
-            <v>insr1_LOF</v>
+            <v>ins1_lect_LOF</v>
           </cell>
           <cell r="B1">
             <v>6</v>
@@ -1835,603 +2473,1213 @@
             <v>10</v>
           </cell>
           <cell r="D1">
+            <v>12</v>
+          </cell>
+          <cell r="E1">
             <v>14</v>
           </cell>
-          <cell r="E1">
-            <v>20</v>
-          </cell>
           <cell r="F1">
+            <v>16</v>
+          </cell>
+          <cell r="G1">
+            <v>22</v>
+          </cell>
+          <cell r="H1">
             <v>24</v>
           </cell>
-          <cell r="G1">
-            <v>28</v>
-          </cell>
-          <cell r="H1">
+          <cell r="I1">
+            <v>30</v>
+          </cell>
+          <cell r="J1">
             <v>32</v>
           </cell>
-          <cell r="I1">
-            <v>41</v>
-          </cell>
-          <cell r="J1">
-            <v>53</v>
-          </cell>
           <cell r="K1">
-            <v>67</v>
+            <v>34</v>
           </cell>
           <cell r="L1">
-            <v>71</v>
+            <v>36</v>
           </cell>
           <cell r="M1">
-            <v>75</v>
+            <v>42</v>
           </cell>
           <cell r="N1">
+            <v>50</v>
+          </cell>
+          <cell r="O1">
+            <v>52</v>
+          </cell>
+          <cell r="P1">
+            <v>54</v>
+          </cell>
+          <cell r="Q1">
+            <v>64</v>
+          </cell>
+          <cell r="R1">
+            <v>68</v>
+          </cell>
+          <cell r="S1">
+            <v>70</v>
+          </cell>
+          <cell r="T1">
+            <v>72</v>
+          </cell>
+          <cell r="U1">
+            <v>74</v>
+          </cell>
+          <cell r="V1">
+            <v>76</v>
+          </cell>
+          <cell r="W1">
             <v>84</v>
           </cell>
-          <cell r="O1">
-            <v>89</v>
-          </cell>
-          <cell r="P1">
-            <v>94</v>
-          </cell>
-          <cell r="Q1">
-            <v>99</v>
-          </cell>
-          <cell r="R1">
-            <v>110</v>
-          </cell>
-          <cell r="S1">
-            <v>115</v>
-          </cell>
-          <cell r="T1">
-            <v>120</v>
-          </cell>
-          <cell r="U1">
-            <v>125</v>
-          </cell>
-          <cell r="V1">
-            <v>135</v>
-          </cell>
-          <cell r="W1">
-            <v>141</v>
-          </cell>
           <cell r="X1">
-            <v>147</v>
+            <v>92</v>
           </cell>
           <cell r="Y1">
-            <v>157</v>
+            <v>96</v>
           </cell>
           <cell r="Z1">
-            <v>177</v>
+            <v>98</v>
           </cell>
           <cell r="AA1">
+            <v>102</v>
+          </cell>
+          <cell r="AB1">
+            <v>104</v>
+          </cell>
+          <cell r="AC1">
+            <v>106</v>
+          </cell>
+          <cell r="AD1">
+            <v>108</v>
+          </cell>
+          <cell r="AE1">
+            <v>112</v>
+          </cell>
+          <cell r="AF1">
+            <v>118</v>
+          </cell>
+          <cell r="AG1">
+            <v>126</v>
+          </cell>
+          <cell r="AH1">
+            <v>128</v>
+          </cell>
+          <cell r="AI1">
+            <v>130</v>
+          </cell>
+          <cell r="AJ1">
+            <v>136</v>
+          </cell>
+          <cell r="AK1">
+            <v>142</v>
+          </cell>
+          <cell r="AL1">
+            <v>146</v>
+          </cell>
+          <cell r="AM1">
+            <v>150</v>
+          </cell>
+          <cell r="AN1">
+            <v>154</v>
+          </cell>
+          <cell r="AO1">
+            <v>156</v>
+          </cell>
+          <cell r="AP1">
+            <v>162</v>
+          </cell>
+          <cell r="AQ1">
+            <v>164</v>
+          </cell>
+          <cell r="AR1">
+            <v>166</v>
+          </cell>
+          <cell r="AS1">
+            <v>168</v>
+          </cell>
+          <cell r="AT1">
+            <v>170</v>
+          </cell>
+          <cell r="AU1">
+            <v>172</v>
+          </cell>
+          <cell r="AV1">
+            <v>176</v>
+          </cell>
+          <cell r="AW1">
+            <v>178</v>
+          </cell>
+          <cell r="AX1">
             <v>182</v>
           </cell>
-          <cell r="AB1">
-            <v>187</v>
-          </cell>
-          <cell r="AC1">
-            <v>193</v>
-          </cell>
-          <cell r="AD1">
-            <v>199</v>
-          </cell>
-          <cell r="AE1">
-            <v>205</v>
-          </cell>
-          <cell r="AF1">
-            <v>211</v>
-          </cell>
-          <cell r="AG1">
-            <v>217</v>
-          </cell>
-          <cell r="AH1">
-            <v>230</v>
-          </cell>
-          <cell r="AI1">
-            <v>237</v>
-          </cell>
-          <cell r="AJ1">
+          <cell r="AY1">
+            <v>186</v>
+          </cell>
+          <cell r="AZ1">
+            <v>190</v>
+          </cell>
+          <cell r="BA1">
+            <v>210</v>
+          </cell>
+          <cell r="BB1">
+            <v>212</v>
+          </cell>
+          <cell r="BC1">
+            <v>220</v>
+          </cell>
+          <cell r="BD1">
+            <v>224</v>
+          </cell>
+          <cell r="BE1">
+            <v>226</v>
+          </cell>
+          <cell r="BF1">
+            <v>232</v>
+          </cell>
+          <cell r="BG1">
+            <v>236</v>
+          </cell>
+          <cell r="BH1">
+            <v>238</v>
+          </cell>
+          <cell r="BI1">
+            <v>242</v>
+          </cell>
+          <cell r="BJ1">
+            <v>244</v>
+          </cell>
+          <cell r="BK1">
+            <v>246</v>
+          </cell>
+          <cell r="BL1">
+            <v>250</v>
+          </cell>
+          <cell r="BM1">
+            <v>258</v>
+          </cell>
+          <cell r="BN1">
+            <v>260</v>
+          </cell>
+          <cell r="BO1">
+            <v>262</v>
+          </cell>
+          <cell r="BP1">
+            <v>266</v>
+          </cell>
+          <cell r="BQ1">
             <v>276</v>
           </cell>
-          <cell r="AK1">
-            <v>297</v>
-          </cell>
-          <cell r="AL1">
-            <v>311</v>
-          </cell>
-          <cell r="AM1">
-            <v>325</v>
-          </cell>
-          <cell r="AN1">
-            <v>346</v>
-          </cell>
-          <cell r="AO1">
-            <v>367</v>
-          </cell>
-          <cell r="AP1">
-            <v>374</v>
-          </cell>
-          <cell r="AQ1">
-            <v>381</v>
-          </cell>
-          <cell r="AR1">
+          <cell r="BR1">
+            <v>278</v>
+          </cell>
+          <cell r="BS1">
+            <v>280</v>
+          </cell>
+          <cell r="BT1">
+            <v>282</v>
+          </cell>
+          <cell r="BU1">
+            <v>284</v>
+          </cell>
+          <cell r="BV1">
+            <v>288</v>
+          </cell>
+          <cell r="BW1">
+            <v>290</v>
+          </cell>
+          <cell r="BX1">
+            <v>302</v>
+          </cell>
+          <cell r="BY1">
+            <v>306</v>
+          </cell>
+          <cell r="BZ1">
+            <v>308</v>
+          </cell>
+          <cell r="CA1">
+            <v>312</v>
+          </cell>
+          <cell r="CB1">
+            <v>320</v>
+          </cell>
+          <cell r="CC1">
+            <v>322</v>
+          </cell>
+          <cell r="CD1">
+            <v>324</v>
+          </cell>
+          <cell r="CE1">
+            <v>328</v>
+          </cell>
+          <cell r="CF1">
+            <v>330</v>
+          </cell>
+          <cell r="CG1">
+            <v>332</v>
+          </cell>
+          <cell r="CH1">
+            <v>336</v>
+          </cell>
+          <cell r="CI1">
+            <v>338</v>
+          </cell>
+          <cell r="CJ1">
+            <v>340</v>
+          </cell>
+          <cell r="CK1">
+            <v>342</v>
+          </cell>
+          <cell r="CL1">
+            <v>344</v>
+          </cell>
+          <cell r="CM1">
+            <v>362</v>
+          </cell>
+          <cell r="CN1">
+            <v>369</v>
+          </cell>
+          <cell r="CO1">
+            <v>372</v>
+          </cell>
+          <cell r="CP1">
+            <v>375</v>
+          </cell>
+          <cell r="CQ1">
+            <v>382</v>
+          </cell>
+          <cell r="CR1">
+            <v>389</v>
+          </cell>
+          <cell r="CS1">
+            <v>392</v>
+          </cell>
+          <cell r="CT1">
             <v>395</v>
           </cell>
-          <cell r="AS1">
-            <v>426</v>
-          </cell>
-          <cell r="AT1">
-            <v>442</v>
-          </cell>
-          <cell r="AU1">
-            <v>450</v>
-          </cell>
-          <cell r="AV1">
-            <v>458</v>
-          </cell>
-          <cell r="AW1">
-            <v>498</v>
-          </cell>
-          <cell r="AX1">
-            <v>539</v>
-          </cell>
-          <cell r="AY1">
-            <v>547</v>
-          </cell>
-          <cell r="AZ1">
-            <v>571</v>
-          </cell>
-          <cell r="BA1">
-            <v>579</v>
-          </cell>
-          <cell r="BB1">
-            <v>587</v>
-          </cell>
-          <cell r="BC1">
-            <v>603</v>
-          </cell>
-          <cell r="BD1">
-            <v>612</v>
-          </cell>
-          <cell r="BE1">
-            <v>621</v>
-          </cell>
-          <cell r="BF1">
-            <v>637</v>
-          </cell>
-          <cell r="BG1">
-            <v>653</v>
-          </cell>
-          <cell r="BH1">
-            <v>662</v>
-          </cell>
-          <cell r="BI1">
-            <v>679</v>
-          </cell>
-          <cell r="BJ1">
-            <v>698</v>
-          </cell>
-          <cell r="BK1">
-            <v>707</v>
-          </cell>
-          <cell r="BL1">
-            <v>787</v>
-          </cell>
-          <cell r="BM1">
-            <v>797</v>
-          </cell>
-          <cell r="BN1">
-            <v>807</v>
-          </cell>
-          <cell r="BO1">
-            <v>817</v>
-          </cell>
-          <cell r="BP1">
-            <v>827</v>
-          </cell>
-          <cell r="BQ1">
-            <v>837</v>
-          </cell>
-          <cell r="BR1">
-            <v>857</v>
-          </cell>
-          <cell r="BS1">
-            <v>897</v>
-          </cell>
-          <cell r="BT1">
-            <v>919</v>
-          </cell>
-          <cell r="BU1">
-            <v>930</v>
-          </cell>
-          <cell r="BV1">
-            <v>960</v>
-          </cell>
-          <cell r="BW1">
-            <v>1043</v>
-          </cell>
-          <cell r="BX1">
-            <v>1066</v>
-          </cell>
-          <cell r="BY1">
-            <v>1077</v>
-          </cell>
-          <cell r="BZ1">
-            <v>1088</v>
-          </cell>
-          <cell r="CA1">
-            <v>1154</v>
-          </cell>
-          <cell r="CB1">
-            <v>1198</v>
-          </cell>
-          <cell r="CC1">
-            <v>1209</v>
-          </cell>
-          <cell r="CD1">
-            <v>1231</v>
-          </cell>
-          <cell r="CE1">
-            <v>1254</v>
-          </cell>
-          <cell r="CF1">
-            <v>1266</v>
-          </cell>
-          <cell r="CG1">
-            <v>1278</v>
-          </cell>
-          <cell r="CH1">
-            <v>1314</v>
-          </cell>
-          <cell r="CI1">
-            <v>1338</v>
-          </cell>
-          <cell r="CJ1">
-            <v>1374</v>
-          </cell>
-          <cell r="CK1">
-            <v>1386</v>
-          </cell>
-          <cell r="CL1">
-            <v>1410</v>
-          </cell>
-          <cell r="CM1">
-            <v>1422</v>
-          </cell>
-          <cell r="CN1">
-            <v>1434</v>
-          </cell>
-          <cell r="CO1">
-            <v>1446</v>
-          </cell>
-          <cell r="CP1">
-            <v>1458</v>
-          </cell>
-          <cell r="CQ1">
-            <v>1506</v>
-          </cell>
-          <cell r="CR1">
-            <v>1531</v>
-          </cell>
-          <cell r="CS1">
-            <v>1557</v>
-          </cell>
-          <cell r="CT1">
-            <v>1570</v>
-          </cell>
           <cell r="CU1">
-            <v>1583</v>
+            <v>398</v>
           </cell>
           <cell r="CV1">
-            <v>1596</v>
+            <v>401</v>
           </cell>
           <cell r="CW1">
-            <v>1609</v>
+            <v>404</v>
           </cell>
         </row>
         <row r="2">
           <cell r="A2" t="str">
-            <v>sup1_LOF</v>
+            <v>ins1_ecr_LOF</v>
           </cell>
           <cell r="B2">
             <v>3</v>
           </cell>
           <cell r="C2">
+            <v>5</v>
+          </cell>
+          <cell r="D2">
+            <v>6</v>
+          </cell>
+          <cell r="E2">
+            <v>8</v>
+          </cell>
+          <cell r="F2">
+            <v>10</v>
+          </cell>
+          <cell r="G2">
+            <v>13</v>
+          </cell>
+          <cell r="H2">
+            <v>14</v>
+          </cell>
+          <cell r="I2">
             <v>17</v>
           </cell>
-          <cell r="D2">
+          <cell r="J2">
+            <v>18</v>
+          </cell>
+          <cell r="K2">
+            <v>20</v>
+          </cell>
+          <cell r="L2">
+            <v>22</v>
+          </cell>
+          <cell r="M2">
+            <v>25</v>
+          </cell>
+          <cell r="N2">
+            <v>29</v>
+          </cell>
+          <cell r="O2">
+            <v>30</v>
+          </cell>
+          <cell r="P2">
+            <v>31</v>
+          </cell>
+          <cell r="Q2">
+            <v>36</v>
+          </cell>
+          <cell r="R2">
+            <v>38</v>
+          </cell>
+          <cell r="S2">
+            <v>39</v>
+          </cell>
+          <cell r="T2">
+            <v>40</v>
+          </cell>
+          <cell r="U2">
+            <v>41</v>
+          </cell>
+          <cell r="V2">
+            <v>42</v>
+          </cell>
+          <cell r="W2">
+            <v>46</v>
+          </cell>
+          <cell r="X2">
+            <v>50</v>
+          </cell>
+          <cell r="Y2">
+            <v>52</v>
+          </cell>
+          <cell r="Z2">
+            <v>53</v>
+          </cell>
+          <cell r="AA2">
+            <v>55</v>
+          </cell>
+          <cell r="AB2">
+            <v>56</v>
+          </cell>
+          <cell r="AC2">
+            <v>57</v>
+          </cell>
+          <cell r="AD2">
+            <v>58</v>
+          </cell>
+          <cell r="AE2">
+            <v>60</v>
+          </cell>
+          <cell r="AF2">
+            <v>63</v>
+          </cell>
+          <cell r="AG2">
+            <v>67</v>
+          </cell>
+          <cell r="AH2">
+            <v>68</v>
+          </cell>
+          <cell r="AI2">
+            <v>69</v>
+          </cell>
+          <cell r="AJ2">
+            <v>72</v>
+          </cell>
+          <cell r="AK2">
+            <v>75</v>
+          </cell>
+          <cell r="AL2">
+            <v>77</v>
+          </cell>
+          <cell r="AM2">
+            <v>79</v>
+          </cell>
+          <cell r="AN2">
+            <v>81</v>
+          </cell>
+          <cell r="AO2">
+            <v>82</v>
+          </cell>
+          <cell r="AP2">
+            <v>85</v>
+          </cell>
+          <cell r="AQ2">
+            <v>86</v>
+          </cell>
+          <cell r="AR2">
+            <v>87</v>
+          </cell>
+          <cell r="AS2">
+            <v>88</v>
+          </cell>
+          <cell r="AT2">
+            <v>90</v>
+          </cell>
+          <cell r="AU2">
+            <v>92</v>
+          </cell>
+          <cell r="AV2">
+            <v>94</v>
+          </cell>
+          <cell r="AW2">
+            <v>96</v>
+          </cell>
+          <cell r="AX2">
+            <v>98</v>
+          </cell>
+          <cell r="AY2">
+            <v>100</v>
+          </cell>
+          <cell r="AZ2">
+            <v>102</v>
+          </cell>
+          <cell r="BA2">
+            <v>112</v>
+          </cell>
+          <cell r="BB2">
+            <v>113</v>
+          </cell>
+          <cell r="BC2">
+            <v>117</v>
+          </cell>
+          <cell r="BD2">
+            <v>119</v>
+          </cell>
+          <cell r="BE2">
+            <v>120</v>
+          </cell>
+          <cell r="BF2">
+            <v>123</v>
+          </cell>
+          <cell r="BG2">
+            <v>125</v>
+          </cell>
+          <cell r="BH2">
+            <v>126</v>
+          </cell>
+          <cell r="BI2">
+            <v>128</v>
+          </cell>
+          <cell r="BJ2">
+            <v>129</v>
+          </cell>
+          <cell r="BK2">
+            <v>130</v>
+          </cell>
+          <cell r="BL2">
+            <v>132</v>
+          </cell>
+          <cell r="BM2">
+            <v>136</v>
+          </cell>
+          <cell r="BN2">
+            <v>137</v>
+          </cell>
+          <cell r="BO2">
+            <v>138</v>
+          </cell>
+          <cell r="BP2">
+            <v>140</v>
+          </cell>
+          <cell r="BQ2">
+            <v>145</v>
+          </cell>
+          <cell r="BR2">
+            <v>146</v>
+          </cell>
+          <cell r="BS2">
+            <v>147</v>
+          </cell>
+          <cell r="BT2">
+            <v>148</v>
+          </cell>
+          <cell r="BU2">
+            <v>149</v>
+          </cell>
+          <cell r="BV2">
+            <v>151</v>
+          </cell>
+          <cell r="BW2">
+            <v>152</v>
+          </cell>
+          <cell r="BX2">
+            <v>158</v>
+          </cell>
+          <cell r="BY2">
+            <v>160</v>
+          </cell>
+          <cell r="BZ2">
+            <v>161</v>
+          </cell>
+          <cell r="CA2">
+            <v>163</v>
+          </cell>
+          <cell r="CB2">
+            <v>167</v>
+          </cell>
+          <cell r="CC2">
+            <v>168</v>
+          </cell>
+          <cell r="CD2">
+            <v>169</v>
+          </cell>
+          <cell r="CE2">
+            <v>171</v>
+          </cell>
+          <cell r="CF2">
+            <v>172</v>
+          </cell>
+          <cell r="CG2">
+            <v>173</v>
+          </cell>
+          <cell r="CH2">
+            <v>175</v>
+          </cell>
+          <cell r="CI2">
+            <v>176</v>
+          </cell>
+          <cell r="CJ2">
+            <v>177</v>
+          </cell>
+          <cell r="CK2">
+            <v>178</v>
+          </cell>
+          <cell r="CL2">
+            <v>179</v>
+          </cell>
+          <cell r="CM2">
+            <v>188</v>
+          </cell>
+          <cell r="CN2">
+            <v>191</v>
+          </cell>
+          <cell r="CO2">
+            <v>192</v>
+          </cell>
+          <cell r="CP2">
+            <v>193</v>
+          </cell>
+          <cell r="CQ2">
+            <v>195</v>
+          </cell>
+          <cell r="CR2">
+            <v>197</v>
+          </cell>
+          <cell r="CS2">
+            <v>198</v>
+          </cell>
+          <cell r="CT2">
+            <v>199</v>
+          </cell>
+          <cell r="CU2">
+            <v>200</v>
+          </cell>
+          <cell r="CV2">
+            <v>201</v>
+          </cell>
+          <cell r="CW2">
+            <v>202</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>sup1_lect_LOF</v>
+          </cell>
+          <cell r="B3">
+            <v>2</v>
+          </cell>
+          <cell r="C3">
+            <v>4</v>
+          </cell>
+          <cell r="D3">
+            <v>8</v>
+          </cell>
+          <cell r="E3">
+            <v>18</v>
+          </cell>
+          <cell r="F3">
+            <v>20</v>
+          </cell>
+          <cell r="G3">
+            <v>26</v>
+          </cell>
+          <cell r="H3">
+            <v>28</v>
+          </cell>
+          <cell r="I3">
+            <v>38</v>
+          </cell>
+          <cell r="J3">
+            <v>40</v>
+          </cell>
+          <cell r="K3">
+            <v>44</v>
+          </cell>
+          <cell r="L3">
+            <v>46</v>
+          </cell>
+          <cell r="M3">
+            <v>48</v>
+          </cell>
+          <cell r="N3">
+            <v>56</v>
+          </cell>
+          <cell r="O3">
+            <v>58</v>
+          </cell>
+          <cell r="P3">
+            <v>60</v>
+          </cell>
+          <cell r="Q3">
+            <v>62</v>
+          </cell>
+          <cell r="R3">
+            <v>66</v>
+          </cell>
+          <cell r="S3">
+            <v>78</v>
+          </cell>
+          <cell r="T3">
+            <v>80</v>
+          </cell>
+          <cell r="U3">
+            <v>82</v>
+          </cell>
+          <cell r="V3">
+            <v>86</v>
+          </cell>
+          <cell r="W3">
+            <v>88</v>
+          </cell>
+          <cell r="X3">
+            <v>90</v>
+          </cell>
+          <cell r="Y3">
+            <v>94</v>
+          </cell>
+          <cell r="Z3">
+            <v>100</v>
+          </cell>
+          <cell r="AA3">
+            <v>110</v>
+          </cell>
+          <cell r="AB3">
+            <v>114</v>
+          </cell>
+          <cell r="AC3">
+            <v>116</v>
+          </cell>
+          <cell r="AD3">
+            <v>120</v>
+          </cell>
+          <cell r="AE3">
+            <v>122</v>
+          </cell>
+          <cell r="AF3">
+            <v>124</v>
+          </cell>
+          <cell r="AG3">
+            <v>132</v>
+          </cell>
+          <cell r="AH3">
+            <v>134</v>
+          </cell>
+          <cell r="AI3">
+            <v>138</v>
+          </cell>
+          <cell r="AJ3">
+            <v>140</v>
+          </cell>
+          <cell r="AK3">
+            <v>144</v>
+          </cell>
+          <cell r="AL3">
+            <v>148</v>
+          </cell>
+          <cell r="AM3">
+            <v>152</v>
+          </cell>
+          <cell r="AN3">
+            <v>158</v>
+          </cell>
+          <cell r="AO3">
+            <v>160</v>
+          </cell>
+          <cell r="AP3">
+            <v>174</v>
+          </cell>
+          <cell r="AQ3">
+            <v>180</v>
+          </cell>
+          <cell r="AR3">
+            <v>184</v>
+          </cell>
+          <cell r="AS3">
+            <v>188</v>
+          </cell>
+          <cell r="AT3">
+            <v>192</v>
+          </cell>
+          <cell r="AU3">
+            <v>194</v>
+          </cell>
+          <cell r="AV3">
+            <v>196</v>
+          </cell>
+          <cell r="AW3">
+            <v>198</v>
+          </cell>
+          <cell r="AX3">
+            <v>200</v>
+          </cell>
+          <cell r="AY3">
+            <v>202</v>
+          </cell>
+          <cell r="AZ3">
+            <v>204</v>
+          </cell>
+          <cell r="BA3">
+            <v>206</v>
+          </cell>
+          <cell r="BB3">
+            <v>208</v>
+          </cell>
+          <cell r="BC3">
+            <v>214</v>
+          </cell>
+          <cell r="BD3">
+            <v>216</v>
+          </cell>
+          <cell r="BE3">
+            <v>218</v>
+          </cell>
+          <cell r="BF3">
+            <v>222</v>
+          </cell>
+          <cell r="BG3">
+            <v>228</v>
+          </cell>
+          <cell r="BH3">
+            <v>230</v>
+          </cell>
+          <cell r="BI3">
+            <v>234</v>
+          </cell>
+          <cell r="BJ3">
+            <v>240</v>
+          </cell>
+          <cell r="BK3">
+            <v>248</v>
+          </cell>
+          <cell r="BL3">
+            <v>252</v>
+          </cell>
+          <cell r="BM3">
+            <v>254</v>
+          </cell>
+          <cell r="BN3">
+            <v>256</v>
+          </cell>
+          <cell r="BO3">
+            <v>264</v>
+          </cell>
+          <cell r="BP3">
+            <v>268</v>
+          </cell>
+          <cell r="BQ3">
+            <v>270</v>
+          </cell>
+          <cell r="BR3">
+            <v>272</v>
+          </cell>
+          <cell r="BS3">
+            <v>274</v>
+          </cell>
+          <cell r="BT3">
+            <v>286</v>
+          </cell>
+          <cell r="BU3">
+            <v>292</v>
+          </cell>
+          <cell r="BV3">
+            <v>294</v>
+          </cell>
+          <cell r="BW3">
+            <v>296</v>
+          </cell>
+          <cell r="BX3">
+            <v>298</v>
+          </cell>
+          <cell r="BY3">
+            <v>300</v>
+          </cell>
+          <cell r="BZ3">
+            <v>304</v>
+          </cell>
+          <cell r="CA3">
+            <v>310</v>
+          </cell>
+          <cell r="CB3">
+            <v>314</v>
+          </cell>
+          <cell r="CC3">
+            <v>316</v>
+          </cell>
+          <cell r="CD3">
+            <v>318</v>
+          </cell>
+          <cell r="CE3">
+            <v>326</v>
+          </cell>
+          <cell r="CF3">
+            <v>334</v>
+          </cell>
+          <cell r="CG3">
+            <v>346</v>
+          </cell>
+          <cell r="CH3">
+            <v>348</v>
+          </cell>
+          <cell r="CI3">
+            <v>350</v>
+          </cell>
+          <cell r="CJ3">
+            <v>352</v>
+          </cell>
+          <cell r="CK3">
+            <v>354</v>
+          </cell>
+          <cell r="CL3">
+            <v>356</v>
+          </cell>
+          <cell r="CM3">
+            <v>358</v>
+          </cell>
+          <cell r="CN3">
+            <v>360</v>
+          </cell>
+          <cell r="CO3">
+            <v>364</v>
+          </cell>
+          <cell r="CP3">
+            <v>366</v>
+          </cell>
+          <cell r="CQ3">
+            <v>379</v>
+          </cell>
+          <cell r="CR3">
+            <v>386</v>
+          </cell>
+          <cell r="CS3">
+            <v>416</v>
+          </cell>
+          <cell r="CT3">
+            <v>421</v>
+          </cell>
+          <cell r="CU3">
+            <v>438</v>
+          </cell>
+          <cell r="CV3">
+            <v>443</v>
+          </cell>
+          <cell r="CW3">
+            <v>448</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>sup1_ecr_LOF</v>
+          </cell>
+          <cell r="B4">
+            <v>1</v>
+          </cell>
+          <cell r="C4">
+            <v>2</v>
+          </cell>
+          <cell r="D4">
+            <v>4</v>
+          </cell>
+          <cell r="E4">
+            <v>11</v>
+          </cell>
+          <cell r="F4">
+            <v>12</v>
+          </cell>
+          <cell r="G4">
+            <v>15</v>
+          </cell>
+          <cell r="H4">
+            <v>16</v>
+          </cell>
+          <cell r="I4">
+            <v>23</v>
+          </cell>
+          <cell r="J4">
+            <v>24</v>
+          </cell>
+          <cell r="K4">
+            <v>26</v>
+          </cell>
+          <cell r="L4">
+            <v>27</v>
+          </cell>
+          <cell r="M4">
+            <v>28</v>
+          </cell>
+          <cell r="N4">
+            <v>32</v>
+          </cell>
+          <cell r="O4">
+            <v>33</v>
+          </cell>
+          <cell r="P4">
+            <v>34</v>
+          </cell>
+          <cell r="Q4">
             <v>35</v>
           </cell>
-          <cell r="E2">
-            <v>38</v>
-          </cell>
-          <cell r="F2">
+          <cell r="R4">
+            <v>37</v>
+          </cell>
+          <cell r="S4">
+            <v>43</v>
+          </cell>
+          <cell r="T4">
             <v>44</v>
           </cell>
-          <cell r="G2">
+          <cell r="U4">
+            <v>45</v>
+          </cell>
+          <cell r="V4">
+            <v>47</v>
+          </cell>
+          <cell r="W4">
+            <v>48</v>
+          </cell>
+          <cell r="X4">
             <v>49</v>
           </cell>
-          <cell r="H2">
-            <v>58</v>
-          </cell>
-          <cell r="I2">
-            <v>63</v>
-          </cell>
-          <cell r="J2">
-            <v>79</v>
-          </cell>
-          <cell r="K2">
+          <cell r="Y4">
+            <v>51</v>
+          </cell>
+          <cell r="Z4">
+            <v>54</v>
+          </cell>
+          <cell r="AA4">
+            <v>59</v>
+          </cell>
+          <cell r="AB4">
+            <v>61</v>
+          </cell>
+          <cell r="AC4">
+            <v>62</v>
+          </cell>
+          <cell r="AD4">
+            <v>64</v>
+          </cell>
+          <cell r="AE4">
+            <v>65</v>
+          </cell>
+          <cell r="AF4">
+            <v>66</v>
+          </cell>
+          <cell r="AG4">
+            <v>70</v>
+          </cell>
+          <cell r="AH4">
+            <v>71</v>
+          </cell>
+          <cell r="AI4">
+            <v>73</v>
+          </cell>
+          <cell r="AJ4">
+            <v>74</v>
+          </cell>
+          <cell r="AK4">
+            <v>76</v>
+          </cell>
+          <cell r="AL4">
+            <v>78</v>
+          </cell>
+          <cell r="AM4">
+            <v>80</v>
+          </cell>
+          <cell r="AN4">
+            <v>83</v>
+          </cell>
+          <cell r="AO4">
+            <v>84</v>
+          </cell>
+          <cell r="AP4">
+            <v>93</v>
+          </cell>
+          <cell r="AQ4">
+            <v>97</v>
+          </cell>
+          <cell r="AR4">
+            <v>99</v>
+          </cell>
+          <cell r="AS4">
+            <v>101</v>
+          </cell>
+          <cell r="AT4">
+            <v>103</v>
+          </cell>
+          <cell r="AU4">
+            <v>104</v>
+          </cell>
+          <cell r="AV4">
             <v>105</v>
           </cell>
-          <cell r="L2">
-            <v>130</v>
-          </cell>
-          <cell r="M2">
-            <v>152</v>
-          </cell>
-          <cell r="N2">
+          <cell r="AW4">
+            <v>106</v>
+          </cell>
+          <cell r="AX4">
+            <v>107</v>
+          </cell>
+          <cell r="AY4">
+            <v>108</v>
+          </cell>
+          <cell r="AZ4">
+            <v>109</v>
+          </cell>
+          <cell r="BA4">
+            <v>110</v>
+          </cell>
+          <cell r="BB4">
+            <v>111</v>
+          </cell>
+          <cell r="BC4">
+            <v>114</v>
+          </cell>
+          <cell r="BD4">
+            <v>115</v>
+          </cell>
+          <cell r="BE4">
+            <v>116</v>
+          </cell>
+          <cell r="BF4">
+            <v>118</v>
+          </cell>
+          <cell r="BG4">
+            <v>121</v>
+          </cell>
+          <cell r="BH4">
+            <v>122</v>
+          </cell>
+          <cell r="BI4">
+            <v>124</v>
+          </cell>
+          <cell r="BJ4">
+            <v>127</v>
+          </cell>
+          <cell r="BK4">
+            <v>131</v>
+          </cell>
+          <cell r="BL4">
+            <v>133</v>
+          </cell>
+          <cell r="BM4">
+            <v>134</v>
+          </cell>
+          <cell r="BN4">
+            <v>135</v>
+          </cell>
+          <cell r="BO4">
+            <v>139</v>
+          </cell>
+          <cell r="BP4">
+            <v>141</v>
+          </cell>
+          <cell r="BQ4">
+            <v>142</v>
+          </cell>
+          <cell r="BR4">
+            <v>143</v>
+          </cell>
+          <cell r="BS4">
+            <v>144</v>
+          </cell>
+          <cell r="BT4">
+            <v>150</v>
+          </cell>
+          <cell r="BU4">
+            <v>153</v>
+          </cell>
+          <cell r="BV4">
+            <v>154</v>
+          </cell>
+          <cell r="BW4">
+            <v>155</v>
+          </cell>
+          <cell r="BX4">
+            <v>156</v>
+          </cell>
+          <cell r="BY4">
+            <v>157</v>
+          </cell>
+          <cell r="BZ4">
+            <v>159</v>
+          </cell>
+          <cell r="CA4">
             <v>162</v>
           </cell>
-          <cell r="O2">
-            <v>167</v>
-          </cell>
-          <cell r="P2">
-            <v>172</v>
-          </cell>
-          <cell r="Q2">
-            <v>223</v>
-          </cell>
-          <cell r="R2">
-            <v>245</v>
-          </cell>
-          <cell r="S2">
-            <v>253</v>
-          </cell>
-          <cell r="T2">
-            <v>261</v>
-          </cell>
-          <cell r="U2">
-            <v>269</v>
-          </cell>
-          <cell r="V2">
-            <v>283</v>
-          </cell>
-          <cell r="W2">
-            <v>290</v>
-          </cell>
-          <cell r="X2">
-            <v>304</v>
-          </cell>
-          <cell r="Y2">
-            <v>318</v>
-          </cell>
-          <cell r="Z2">
-            <v>332</v>
-          </cell>
-          <cell r="AA2">
-            <v>339</v>
-          </cell>
-          <cell r="AB2">
-            <v>353</v>
-          </cell>
-          <cell r="AC2">
-            <v>360</v>
-          </cell>
-          <cell r="AD2">
-            <v>388</v>
-          </cell>
-          <cell r="AE2">
-            <v>402</v>
-          </cell>
-          <cell r="AF2">
-            <v>410</v>
-          </cell>
-          <cell r="AG2">
-            <v>418</v>
-          </cell>
-          <cell r="AH2">
-            <v>434</v>
-          </cell>
-          <cell r="AI2">
-            <v>466</v>
-          </cell>
-          <cell r="AJ2">
-            <v>474</v>
-          </cell>
-          <cell r="AK2">
-            <v>482</v>
-          </cell>
-          <cell r="AL2">
-            <v>490</v>
-          </cell>
-          <cell r="AM2">
-            <v>506</v>
-          </cell>
-          <cell r="AN2">
-            <v>514</v>
-          </cell>
-          <cell r="AO2">
-            <v>523</v>
-          </cell>
-          <cell r="AP2">
-            <v>531</v>
-          </cell>
-          <cell r="AQ2">
-            <v>555</v>
-          </cell>
-          <cell r="AR2">
-            <v>563</v>
-          </cell>
-          <cell r="AS2">
-            <v>595</v>
-          </cell>
-          <cell r="AT2">
-            <v>629</v>
-          </cell>
-          <cell r="AU2">
-            <v>645</v>
-          </cell>
-          <cell r="AV2">
-            <v>670</v>
-          </cell>
-          <cell r="AW2">
-            <v>689</v>
-          </cell>
-          <cell r="AX2">
-            <v>716</v>
-          </cell>
-          <cell r="AY2">
-            <v>727</v>
-          </cell>
-          <cell r="AZ2">
-            <v>737</v>
-          </cell>
-          <cell r="BA2">
-            <v>747</v>
-          </cell>
-          <cell r="BB2">
-            <v>757</v>
-          </cell>
-          <cell r="BC2">
-            <v>767</v>
-          </cell>
-          <cell r="BD2">
-            <v>777</v>
-          </cell>
-          <cell r="BE2">
-            <v>847</v>
-          </cell>
-          <cell r="BF2">
-            <v>867</v>
-          </cell>
-          <cell r="BG2">
-            <v>877</v>
-          </cell>
-          <cell r="BH2">
-            <v>887</v>
-          </cell>
-          <cell r="BI2">
-            <v>908</v>
-          </cell>
-          <cell r="BJ2">
-            <v>940</v>
-          </cell>
-          <cell r="BK2">
-            <v>950</v>
-          </cell>
-          <cell r="BL2">
-            <v>970</v>
-          </cell>
-          <cell r="BM2">
-            <v>980</v>
-          </cell>
-          <cell r="BN2">
-            <v>990</v>
-          </cell>
-          <cell r="BO2">
-            <v>1000</v>
-          </cell>
-          <cell r="BP2">
-            <v>1010</v>
-          </cell>
-          <cell r="BQ2">
-            <v>1020</v>
-          </cell>
-          <cell r="BR2">
-            <v>1032</v>
-          </cell>
-          <cell r="BS2">
-            <v>1055</v>
-          </cell>
-          <cell r="BT2">
-            <v>1099</v>
-          </cell>
-          <cell r="BU2">
-            <v>1110</v>
-          </cell>
-          <cell r="BV2">
-            <v>1121</v>
-          </cell>
-          <cell r="BW2">
-            <v>1132</v>
-          </cell>
-          <cell r="BX2">
-            <v>1143</v>
-          </cell>
-          <cell r="BY2">
-            <v>1165</v>
-          </cell>
-          <cell r="BZ2">
-            <v>1176</v>
-          </cell>
-          <cell r="CA2">
-            <v>1187</v>
-          </cell>
-          <cell r="CB2">
-            <v>1220</v>
-          </cell>
-          <cell r="CC2">
-            <v>1242</v>
-          </cell>
-          <cell r="CD2">
-            <v>1290</v>
-          </cell>
-          <cell r="CE2">
-            <v>1302</v>
-          </cell>
-          <cell r="CF2">
-            <v>1326</v>
-          </cell>
-          <cell r="CG2">
-            <v>1350</v>
-          </cell>
-          <cell r="CH2">
-            <v>1362</v>
-          </cell>
-          <cell r="CI2">
-            <v>1398</v>
-          </cell>
-          <cell r="CJ2">
-            <v>1470</v>
-          </cell>
-          <cell r="CK2">
-            <v>1482</v>
-          </cell>
-          <cell r="CL2">
-            <v>1494</v>
-          </cell>
-          <cell r="CM2">
-            <v>1518</v>
-          </cell>
-          <cell r="CN2">
-            <v>1544</v>
-          </cell>
-          <cell r="CO2">
-            <v>1622</v>
-          </cell>
-          <cell r="CP2">
-            <v>1661</v>
-          </cell>
-          <cell r="CQ2">
-            <v>1726</v>
-          </cell>
-          <cell r="CR2">
-            <v>1739</v>
-          </cell>
-          <cell r="CS2">
-            <v>0</v>
-          </cell>
-          <cell r="CT2">
-            <v>0</v>
-          </cell>
-          <cell r="CU2">
-            <v>0</v>
-          </cell>
-          <cell r="CV2">
-            <v>0</v>
-          </cell>
-          <cell r="CW2">
-            <v>0</v>
+          <cell r="CB4">
+            <v>164</v>
+          </cell>
+          <cell r="CC4">
+            <v>165</v>
+          </cell>
+          <cell r="CD4">
+            <v>166</v>
+          </cell>
+          <cell r="CE4">
+            <v>170</v>
+          </cell>
+          <cell r="CF4">
+            <v>174</v>
+          </cell>
+          <cell r="CG4">
+            <v>180</v>
+          </cell>
+          <cell r="CH4">
+            <v>181</v>
+          </cell>
+          <cell r="CI4">
+            <v>182</v>
+          </cell>
+          <cell r="CJ4">
+            <v>183</v>
+          </cell>
+          <cell r="CK4">
+            <v>184</v>
+          </cell>
+          <cell r="CL4">
+            <v>185</v>
+          </cell>
+          <cell r="CM4">
+            <v>186</v>
+          </cell>
+          <cell r="CN4">
+            <v>187</v>
+          </cell>
+          <cell r="CO4">
+            <v>189</v>
+          </cell>
+          <cell r="CP4">
+            <v>190</v>
+          </cell>
+          <cell r="CQ4">
+            <v>194</v>
+          </cell>
+          <cell r="CR4">
+            <v>196</v>
+          </cell>
+          <cell r="CS4">
+            <v>206</v>
+          </cell>
+          <cell r="CT4">
+            <v>207</v>
+          </cell>
+          <cell r="CU4">
+            <v>211</v>
+          </cell>
+          <cell r="CV4">
+            <v>212</v>
+          </cell>
+          <cell r="CW4">
+            <v>213</v>
           </cell>
         </row>
       </sheetData>
